--- a/data/statistical/filled_NaN_xlsx/广西壮族自治区_NaN_filled_polynomial.xlsx
+++ b/data/statistical/filled_NaN_xlsx/广西壮族自治区_NaN_filled_polynomial.xlsx
@@ -600,7 +600,7 @@
         <v>42.7</v>
       </c>
       <c r="E2">
-        <v>1142.010714184493</v>
+        <v>1142.010714378208</v>
       </c>
       <c r="F2">
         <v>5413.44</v>
@@ -609,85 +609,85 @@
         <v>7</v>
       </c>
       <c r="H2">
-        <v>40.31283797870856</v>
+        <v>40.31283797894139</v>
       </c>
       <c r="I2">
-        <v>4.083147574765462</v>
+        <v>4.083147574754548</v>
       </c>
       <c r="J2">
-        <v>187.610698942095</v>
+        <v>187.6106991022825</v>
       </c>
       <c r="K2">
-        <v>73.53927121608285</v>
+        <v>73.53927121585002</v>
       </c>
       <c r="L2">
-        <v>2.112809505237237</v>
+        <v>2.112809505280893</v>
       </c>
       <c r="M2">
-        <v>361.225800906308</v>
+        <v>361.2258008476347</v>
       </c>
       <c r="N2">
-        <v>285.0549019586761</v>
+        <v>285.0549019589089</v>
       </c>
       <c r="O2">
-        <v>29.23720588814467</v>
+        <v>29.23720587929711</v>
       </c>
       <c r="P2">
-        <v>661.2604447520039</v>
+        <v>630.237850162875</v>
       </c>
       <c r="Q2">
-        <v>91.87661764788209</v>
+        <v>91.87661764700897</v>
       </c>
       <c r="R2">
-        <v>22.83139059483074</v>
+        <v>22.83139058994129</v>
       </c>
       <c r="S2">
-        <v>255769.7452628435</v>
+        <v>470676.5188335492</v>
       </c>
       <c r="T2">
-        <v>11665.1670345664</v>
+        <v>11665.1670320034</v>
       </c>
       <c r="U2">
-        <v>0.5648351646887022</v>
+        <v>0.5648351649142569</v>
       </c>
       <c r="V2">
-        <v>20.83234262559563</v>
+        <v>20.83234262675978</v>
       </c>
       <c r="W2">
-        <v>45.82109890121501</v>
+        <v>45.82109890179709</v>
       </c>
       <c r="X2">
-        <v>12470.18245892623</v>
+        <v>15408.8014786063</v>
       </c>
       <c r="Y2">
-        <v>42.82164285390172</v>
+        <v>42.8216428643791</v>
       </c>
       <c r="Z2">
-        <v>138828.8761491776</v>
+        <v>138828.8761656284</v>
       </c>
       <c r="AA2">
-        <v>333.7604895569384</v>
+        <v>352.868881303817</v>
       </c>
       <c r="AB2">
-        <v>310935.0999908447</v>
+        <v>371476.2703857422</v>
       </c>
       <c r="AC2">
-        <v>489850.640871048</v>
+        <v>1150438.981147766</v>
       </c>
       <c r="AD2">
-        <v>1502.015734948218</v>
+        <v>-90.9720271229744</v>
       </c>
       <c r="AE2">
-        <v>6246.10007917881</v>
+        <v>29834.09299452484</v>
       </c>
       <c r="AF2">
-        <v>24642.57662218809</v>
+        <v>1107.19514649834</v>
       </c>
       <c r="AG2">
-        <v>350966.9795646667</v>
+        <v>-90502.91157412529</v>
       </c>
       <c r="AH2">
-        <v>753840.8203659058</v>
+        <v>212525.0331277847</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -713,13 +713,13 @@
         <v>7.29</v>
       </c>
       <c r="H3">
-        <v>40.35726006294135</v>
+        <v>40.35726006317418</v>
       </c>
       <c r="I3">
         <v>3.4</v>
       </c>
       <c r="J3">
-        <v>139.2983274236321</v>
+        <v>139.2983275726438</v>
       </c>
       <c r="K3">
         <v>65.5770246463271</v>
@@ -743,13 +743,13 @@
         <v>92.98999999999999</v>
       </c>
       <c r="R3">
-        <v>18.53377449815162</v>
+        <v>18.53377449302934</v>
       </c>
       <c r="S3">
         <v>50530.6</v>
       </c>
       <c r="T3">
-        <v>12573.44615519047</v>
+        <v>12573.4461530447</v>
       </c>
       <c r="U3">
         <v>1.01</v>
@@ -764,34 +764,34 @@
         <v>10701</v>
       </c>
       <c r="Y3">
-        <v>48.92066208494361</v>
+        <v>48.92066209437326</v>
       </c>
       <c r="Z3">
-        <v>137048.4509701729</v>
+        <v>137048.4509847164</v>
       </c>
       <c r="AA3">
-        <v>295.7849650718272</v>
+        <v>309.4597903620452</v>
       </c>
       <c r="AB3">
-        <v>272131.8377485275</v>
+        <v>304258.0776901245</v>
       </c>
       <c r="AC3">
-        <v>422721.0156898499</v>
+        <v>993597.9086837769</v>
       </c>
       <c r="AD3">
-        <v>1238.026224374771</v>
+        <v>-502.1748244762421</v>
       </c>
       <c r="AE3">
-        <v>5626.316852495074</v>
+        <v>70461.42569211617</v>
       </c>
       <c r="AF3">
-        <v>21199.71341878176</v>
+        <v>450.4621229132462</v>
       </c>
       <c r="AG3">
-        <v>297405.477809906</v>
+        <v>-76181.48429679871</v>
       </c>
       <c r="AH3">
-        <v>646191.6888771057</v>
+        <v>194511.856212616</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -817,13 +817,13 @@
         <v>7.2</v>
       </c>
       <c r="H4">
-        <v>40.47970588304452</v>
+        <v>40.47970588333555</v>
       </c>
       <c r="I4">
         <v>4.1</v>
       </c>
       <c r="J4">
-        <v>99.76394743472338</v>
+        <v>99.76394756883383</v>
       </c>
       <c r="K4">
         <v>62.6183194990534</v>
@@ -847,7 +847,7 @@
         <v>93.83</v>
       </c>
       <c r="R4">
-        <v>14.81558822584338</v>
+        <v>14.81558822048828</v>
       </c>
       <c r="S4">
         <v>44864</v>
@@ -868,34 +868,34 @@
         <v>10645</v>
       </c>
       <c r="Y4">
-        <v>54.51840384339448</v>
+        <v>54.5184038518928</v>
       </c>
       <c r="Z4">
         <v>170704</v>
       </c>
       <c r="AA4">
-        <v>260.5731768514961</v>
+        <v>271.5497004222125</v>
       </c>
       <c r="AB4">
-        <v>236561.8842000961</v>
+        <v>253749.9100151062</v>
       </c>
       <c r="AC4">
-        <v>361245.3067932129</v>
+        <v>861319.9859390259</v>
       </c>
       <c r="AD4">
-        <v>1006.49175875634</v>
+        <v>-748.3206787109375</v>
       </c>
       <c r="AE4">
-        <v>5039.462551832199</v>
+        <v>27142.23993878608</v>
       </c>
       <c r="AF4">
-        <v>18011.71060496569</v>
+        <v>3880.023990346585</v>
       </c>
       <c r="AG4">
-        <v>248081.5356445312</v>
+        <v>-62752.42235398293</v>
       </c>
       <c r="AH4">
-        <v>546706.860786438</v>
+        <v>179612.24862957</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -927,7 +927,7 @@
         <v>4.2</v>
       </c>
       <c r="J5">
-        <v>69.00755897536874</v>
+        <v>69.00755909830332</v>
       </c>
       <c r="K5">
         <v>54.9122762982857</v>
@@ -972,34 +972,34 @@
         <v>14445</v>
       </c>
       <c r="Y5">
-        <v>59.6148681291379</v>
+        <v>59.61486813693773</v>
       </c>
       <c r="Z5">
         <v>123970</v>
       </c>
       <c r="AA5">
-        <v>228.1251248968765</v>
+        <v>239.1386114880443</v>
       </c>
       <c r="AB5">
-        <v>204225.2393417358</v>
+        <v>219951.767375946</v>
       </c>
       <c r="AC5">
-        <v>305423.5141849518</v>
+        <v>753605.2128982544</v>
       </c>
       <c r="AD5">
-        <v>807.4123381003737</v>
+        <v>-829.4095898866653</v>
       </c>
       <c r="AE5">
-        <v>4485.537177175283</v>
+        <v>-9163.788548804154</v>
       </c>
       <c r="AF5">
-        <v>15078.56818091869</v>
+        <v>3571.304530456466</v>
       </c>
       <c r="AG5">
-        <v>202995.1530685425</v>
+        <v>-50215.72574615479</v>
       </c>
       <c r="AH5">
-        <v>455386.3360939026</v>
+        <v>167826.2103767395</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1076,34 +1076,34 @@
         <v>15554</v>
       </c>
       <c r="Y6">
-        <v>64.21005494263954</v>
+        <v>64.21005494939163</v>
       </c>
       <c r="Z6">
         <v>119280</v>
       </c>
       <c r="AA6">
-        <v>198.4408092061058</v>
+        <v>212.2265235502273</v>
       </c>
       <c r="AB6">
-        <v>175121.903175354</v>
+        <v>202863.6497573853</v>
       </c>
       <c r="AC6">
-        <v>255255.6378593445</v>
+        <v>670453.5895462036</v>
       </c>
       <c r="AD6">
-        <v>640.7879624068737</v>
+        <v>-745.4415581226349</v>
       </c>
       <c r="AE6">
-        <v>3964.540728569031</v>
+        <v>-8780.27981178313</v>
       </c>
       <c r="AF6">
-        <v>12400.28614634275</v>
+        <v>1345.657921299743</v>
       </c>
       <c r="AG6">
-        <v>162146.3300895691</v>
+        <v>-38571.39447379112</v>
       </c>
       <c r="AH6">
-        <v>372230.1148052216</v>
+        <v>159153.7414541245</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1186,28 +1186,28 @@
         <v>135226</v>
       </c>
       <c r="AA7">
-        <v>171.5202297791839</v>
+        <v>190.8134366162121</v>
       </c>
       <c r="AB7">
-        <v>149251.8757009506</v>
+        <v>202485.5571670532</v>
       </c>
       <c r="AC7">
-        <v>210741.677816391</v>
+        <v>611865.1159210205</v>
       </c>
       <c r="AD7">
-        <v>506.6186316758394</v>
+        <v>-496.4165831804276</v>
       </c>
       <c r="AE7">
-        <v>3476.473205968738</v>
+        <v>71905.8466835976</v>
       </c>
       <c r="AF7">
-        <v>9976.864501416683</v>
+        <v>3505.689258199399</v>
       </c>
       <c r="AG7">
-        <v>125535.066696167</v>
+        <v>-27819.42853593826</v>
       </c>
       <c r="AH7">
-        <v>297238.1969108582</v>
+        <v>153594.8418588638</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1290,28 +1290,28 @@
         <v>129054</v>
       </c>
       <c r="AA8">
-        <v>147.3633866189048</v>
+        <v>174.8993506859988</v>
       </c>
       <c r="AB8">
-        <v>126615.1569185257</v>
+        <v>218817.4896125793</v>
       </c>
       <c r="AC8">
-        <v>171881.6340618134</v>
+        <v>577839.7919845581</v>
       </c>
       <c r="AD8">
-        <v>404.9043458998203</v>
+        <v>-82.33466517925262</v>
       </c>
       <c r="AE8">
-        <v>3021.334609389305</v>
+        <v>51659.21749462639</v>
       </c>
       <c r="AF8">
-        <v>7808.303246080875</v>
+        <v>1184.191792546104</v>
       </c>
       <c r="AG8">
-        <v>93161.36289787292</v>
+        <v>-17959.82793354988</v>
       </c>
       <c r="AH8">
-        <v>230410.5824146271</v>
+        <v>151149.5115966797</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1394,28 +1394,28 @@
         <v>139409</v>
       </c>
       <c r="AA9">
-        <v>125.9702797206119</v>
+        <v>164.4842657539994</v>
       </c>
       <c r="AB9">
-        <v>107211.7468280792</v>
+        <v>251859.4470787048</v>
       </c>
       <c r="AC9">
-        <v>138675.5065898895</v>
+        <v>568377.6177749634</v>
       </c>
       <c r="AD9">
-        <v>335.6451050937176</v>
+        <v>496.8041958212852</v>
       </c>
       <c r="AE9">
-        <v>2599.124938815832</v>
+        <v>-12020.93154062087</v>
       </c>
       <c r="AF9">
-        <v>5894.602380335331</v>
+        <v>2141.733504825412</v>
       </c>
       <c r="AG9">
-        <v>65025.21868896484</v>
+        <v>-8992.592665910721</v>
       </c>
       <c r="AH9">
-        <v>171747.2713165283</v>
+        <v>151817.7506656647</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1498,28 +1498,28 @@
         <v>143254</v>
       </c>
       <c r="AA10">
-        <v>107.3409090880305</v>
+        <v>159.5681818239391</v>
       </c>
       <c r="AB10">
-        <v>91041.64543056488</v>
+        <v>301611.4295768738</v>
       </c>
       <c r="AC10">
-        <v>111123.2954063416</v>
+        <v>583478.5932617188</v>
       </c>
       <c r="AD10">
-        <v>298.84090924263</v>
+        <v>1241</v>
       </c>
       <c r="AE10">
-        <v>2209.84419426322</v>
+        <v>48615.62024100151</v>
       </c>
       <c r="AF10">
-        <v>4235.761904239655</v>
+        <v>3739.387812687502</v>
       </c>
       <c r="AG10">
-        <v>41126.63407325745</v>
+        <v>-917.7227334976196</v>
       </c>
       <c r="AH10">
-        <v>121248.2636184692</v>
+        <v>155599.5590620041</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1602,28 +1602,28 @@
         <v>147810</v>
       </c>
       <c r="AA11">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="AB11">
-        <v>65191</v>
+        <v>370287</v>
       </c>
       <c r="AC11">
-        <v>74566</v>
+        <v>587107</v>
       </c>
       <c r="AD11">
-        <v>240</v>
+        <v>2958</v>
       </c>
       <c r="AE11">
-        <v>1806</v>
+        <v>15931</v>
       </c>
       <c r="AF11">
-        <v>3883</v>
+        <v>1597</v>
       </c>
       <c r="AG11">
-        <v>1568</v>
+        <v>13570</v>
       </c>
       <c r="AH11">
-        <v>32026</v>
+        <v>208852</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1706,28 +1706,28 @@
         <v>148878</v>
       </c>
       <c r="AA12">
-        <v>95</v>
+        <v>235</v>
       </c>
       <c r="AB12">
-        <v>60799</v>
+        <v>382941</v>
       </c>
       <c r="AC12">
-        <v>66034</v>
+        <v>692761</v>
       </c>
       <c r="AD12">
-        <v>317</v>
+        <v>2393</v>
       </c>
       <c r="AE12">
-        <v>1530.069483220577</v>
+        <v>146235</v>
       </c>
       <c r="AF12">
-        <v>644</v>
+        <v>5993</v>
       </c>
       <c r="AG12">
-        <v>2023</v>
+        <v>14439</v>
       </c>
       <c r="AH12">
-        <v>68356</v>
+        <v>155690</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -1810,28 +1810,28 @@
         <v>149875</v>
       </c>
       <c r="AA13">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="AB13">
-        <v>63038</v>
+        <v>618378</v>
       </c>
       <c r="AC13">
-        <v>66433</v>
+        <v>853626</v>
       </c>
       <c r="AD13">
-        <v>403</v>
+        <v>3684</v>
       </c>
       <c r="AE13">
-        <v>1239.575516745448</v>
+        <v>16177</v>
       </c>
       <c r="AF13">
-        <v>30</v>
+        <v>2752</v>
       </c>
       <c r="AG13">
-        <v>3893</v>
+        <v>15546</v>
       </c>
       <c r="AH13">
-        <v>27134</v>
+        <v>158596</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -1914,28 +1914,28 @@
         <v>143651</v>
       </c>
       <c r="AA14">
-        <v>70</v>
+        <v>211</v>
       </c>
       <c r="AB14">
-        <v>72384</v>
+        <v>645716</v>
       </c>
       <c r="AC14">
-        <v>79827</v>
+        <v>903420</v>
       </c>
       <c r="AD14">
-        <v>458</v>
+        <v>6192</v>
       </c>
       <c r="AE14">
-        <v>982.0104762613773</v>
+        <v>11294</v>
       </c>
       <c r="AF14">
-        <v>159</v>
+        <v>4764</v>
       </c>
       <c r="AG14">
-        <v>3367</v>
+        <v>15737</v>
       </c>
       <c r="AH14">
-        <v>18361</v>
+        <v>192923</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2018,28 +2018,28 @@
         <v>197575</v>
       </c>
       <c r="AA15">
-        <v>67</v>
+        <v>225</v>
       </c>
       <c r="AB15">
-        <v>77969</v>
+        <v>819832</v>
       </c>
       <c r="AC15">
-        <v>70588</v>
+        <v>915223</v>
       </c>
       <c r="AD15">
-        <v>528</v>
+        <v>7010</v>
       </c>
       <c r="AE15">
-        <v>757.3743618130684</v>
+        <v>8893</v>
       </c>
       <c r="AF15">
-        <v>37</v>
+        <v>3269</v>
       </c>
       <c r="AG15">
-        <v>381</v>
+        <v>16240</v>
       </c>
       <c r="AH15">
-        <v>8857</v>
+        <v>199099</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2122,28 +2122,28 @@
         <v>193341</v>
       </c>
       <c r="AA16">
-        <v>50</v>
+        <v>257</v>
       </c>
       <c r="AB16">
-        <v>85092</v>
+        <v>1006821</v>
       </c>
       <c r="AC16">
-        <v>82957</v>
+        <v>1203952</v>
       </c>
       <c r="AD16">
-        <v>1077</v>
+        <v>9136</v>
       </c>
       <c r="AE16">
-        <v>1073</v>
+        <v>19382</v>
       </c>
       <c r="AF16">
-        <v>219</v>
+        <v>2023</v>
       </c>
       <c r="AG16">
-        <v>572</v>
+        <v>14553</v>
       </c>
       <c r="AH16">
-        <v>18489</v>
+        <v>169392</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2178,10 +2178,10 @@
         <v>420.996</v>
       </c>
       <c r="K17">
-        <v>4.77165274717845</v>
+        <v>4.771652747527696</v>
       </c>
       <c r="L17">
-        <v>1.050921285093864</v>
+        <v>1.050921285055665</v>
       </c>
       <c r="M17">
         <v>5.67923788793117</v>
@@ -2226,28 +2226,28 @@
         <v>176081</v>
       </c>
       <c r="AA17">
-        <v>55</v>
+        <v>292</v>
       </c>
       <c r="AB17">
-        <v>81270.5</v>
+        <v>1107842.7</v>
       </c>
       <c r="AC17">
-        <v>86729.3</v>
+        <v>1360733.5</v>
       </c>
       <c r="AD17">
-        <v>1195</v>
+        <v>13761</v>
       </c>
       <c r="AE17">
-        <v>62</v>
+        <v>11671</v>
       </c>
       <c r="AF17">
-        <v>26</v>
+        <v>577</v>
       </c>
       <c r="AG17">
-        <v>305</v>
+        <v>44800</v>
       </c>
       <c r="AH17">
-        <v>6436</v>
+        <v>349930</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2282,10 +2282,10 @@
         <v>561.8</v>
       </c>
       <c r="K18">
-        <v>1.41037283942569</v>
+        <v>1.410372839716729</v>
       </c>
       <c r="L18">
-        <v>0.9431402364916721</v>
+        <v>0.9431402364443784</v>
       </c>
       <c r="M18">
         <v>4.94509031072826</v>
@@ -2312,13 +2312,13 @@
         <v>3074</v>
       </c>
       <c r="U18">
-        <v>0.8968351649236865</v>
+        <v>0.8968351646180963</v>
       </c>
       <c r="V18">
         <v>95</v>
       </c>
       <c r="W18">
-        <v>101.0942417568294</v>
+        <v>101.0942417543847</v>
       </c>
       <c r="X18">
         <v>9712</v>
@@ -2330,28 +2330,28 @@
         <v>247800</v>
       </c>
       <c r="AA18">
-        <v>51</v>
+        <v>286</v>
       </c>
       <c r="AB18">
-        <v>60843.2</v>
+        <v>1394285.1</v>
       </c>
       <c r="AC18">
-        <v>65243.8</v>
+        <v>1835505.1</v>
       </c>
       <c r="AD18">
-        <v>857</v>
+        <v>13203</v>
       </c>
       <c r="AE18">
-        <v>40.5</v>
+        <v>14691.3</v>
       </c>
       <c r="AF18">
-        <v>126.5</v>
+        <v>124.5</v>
       </c>
       <c r="AG18">
-        <v>11</v>
+        <v>34905.1</v>
       </c>
       <c r="AH18">
-        <v>3884</v>
+        <v>331740.9</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2368,7 +2368,7 @@
         <v>50.9</v>
       </c>
       <c r="E19">
-        <v>17663.81071466953</v>
+        <v>17663.81071454287</v>
       </c>
       <c r="F19">
         <v>21590.9386</v>
@@ -2386,10 +2386,10 @@
         <v>607.4</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>-1.798003569128923</v>
       </c>
       <c r="L19">
-        <v>0.8307356253098988</v>
+        <v>0.830735625260786</v>
       </c>
       <c r="M19">
         <v>4.47984050583082</v>
@@ -2413,16 +2413,16 @@
         <v>407670</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>-3046.72527384758</v>
       </c>
       <c r="U19">
-        <v>0.7206483517293236</v>
+        <v>0.7206483513873536</v>
       </c>
       <c r="V19">
         <v>97.5</v>
       </c>
       <c r="W19">
-        <v>100.8124395587947</v>
+        <v>100.8124395556515</v>
       </c>
       <c r="X19">
         <v>4154</v>
@@ -2434,28 +2434,28 @@
         <v>220068</v>
       </c>
       <c r="AA19">
-        <v>44</v>
+        <v>326</v>
       </c>
       <c r="AB19">
-        <v>49524.1</v>
+        <v>1348150.5</v>
       </c>
       <c r="AC19">
-        <v>86899.2</v>
+        <v>1651065.7</v>
       </c>
       <c r="AD19">
-        <v>1335</v>
+        <v>13595</v>
       </c>
       <c r="AE19">
-        <v>42.9</v>
+        <v>34647.4</v>
       </c>
       <c r="AF19">
-        <v>401.5</v>
+        <v>2836.2</v>
       </c>
       <c r="AG19">
-        <v>4108.6</v>
+        <v>46479</v>
       </c>
       <c r="AH19">
-        <v>7985.3</v>
+        <v>329917.8</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -2472,7 +2472,7 @@
         <v>51.7</v>
       </c>
       <c r="E20">
-        <v>18786.1350844875</v>
+        <v>18786.13508435339</v>
       </c>
       <c r="F20">
         <v>20906.5168</v>
@@ -2490,10 +2490,10 @@
         <v>677.3211</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>-4.85347647924209</v>
       </c>
       <c r="L20">
-        <v>0.7137074515576387</v>
+        <v>0.713707451504888</v>
       </c>
       <c r="M20">
         <v>3.96462648527375</v>
@@ -2517,16 +2517,16 @@
         <v>439356</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>-5907.525823116302</v>
       </c>
       <c r="U20">
-        <v>0.5212925017112866</v>
+        <v>0.5212925013111089</v>
       </c>
       <c r="V20">
         <v>99</v>
       </c>
       <c r="W20">
-        <v>100.091063992586</v>
+        <v>100.0910639890935</v>
       </c>
       <c r="X20">
         <v>8901</v>
@@ -2538,28 +2538,28 @@
         <v>211006</v>
       </c>
       <c r="AA20">
-        <v>63</v>
+        <v>399</v>
       </c>
       <c r="AB20">
-        <v>82978</v>
+        <v>1633490</v>
       </c>
       <c r="AC20">
-        <v>120874</v>
+        <v>1993962</v>
       </c>
       <c r="AD20">
-        <v>1268</v>
+        <v>17326</v>
       </c>
       <c r="AE20">
-        <v>458</v>
+        <v>36288</v>
       </c>
       <c r="AF20">
-        <v>1664.678571999073</v>
+        <v>1252</v>
       </c>
       <c r="AG20">
-        <v>244</v>
+        <v>32518</v>
       </c>
       <c r="AH20">
-        <v>9429</v>
+        <v>363594</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -2576,7 +2576,7 @@
         <v>50.2</v>
       </c>
       <c r="E21">
-        <v>19925.17654115707</v>
+        <v>19925.17654100806</v>
       </c>
       <c r="F21">
         <v>22555.3</v>
@@ -2594,25 +2594,25 @@
         <v>702.8015</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>-7.756045890564565</v>
       </c>
       <c r="L21">
-        <v>0.592055715233073</v>
+        <v>0.5920557151694084</v>
       </c>
       <c r="M21">
         <v>3.00377593988245</v>
       </c>
       <c r="N21">
-        <v>281.8803921567742</v>
+        <v>281.88039215561</v>
       </c>
       <c r="O21">
-        <v>109.6564215552062</v>
+        <v>109.6564215598628</v>
       </c>
       <c r="P21">
         <v>1206.3</v>
       </c>
       <c r="Q21">
-        <v>98.82563725436921</v>
+        <v>98.82563725538785</v>
       </c>
       <c r="R21">
         <v>41.3</v>
@@ -2621,49 +2621,49 @@
         <v>455582</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>-8990.036941349506</v>
       </c>
       <c r="U21">
-        <v>0.2987676148331957</v>
+        <v>0.2987676143820863</v>
       </c>
       <c r="V21">
         <v>99.09999999999999</v>
       </c>
       <c r="W21">
-        <v>98.93011505890172</v>
+        <v>98.93011505459435</v>
       </c>
       <c r="X21">
-        <v>14125.48574908207</v>
+        <v>8638.860403186685</v>
       </c>
       <c r="Y21">
-        <v>72.98456044215709</v>
+        <v>72.98456043563783</v>
       </c>
       <c r="Z21">
         <v>194768</v>
       </c>
       <c r="AA21">
-        <v>95</v>
+        <v>470</v>
       </c>
       <c r="AB21">
-        <v>128548</v>
+        <v>2020924</v>
       </c>
       <c r="AC21">
-        <v>207771</v>
+        <v>2403316</v>
       </c>
       <c r="AD21">
-        <v>2482</v>
+        <v>19868</v>
       </c>
       <c r="AE21">
-        <v>42</v>
+        <v>17665</v>
       </c>
       <c r="AF21">
-        <v>2809.302381753922</v>
+        <v>1127</v>
       </c>
       <c r="AG21">
-        <v>1227</v>
+        <v>27024</v>
       </c>
       <c r="AH21">
-        <v>41734</v>
+        <v>439231</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -2680,7 +2680,7 @@
         <v>49.8</v>
       </c>
       <c r="E22">
-        <v>21080.93508465588</v>
+        <v>21080.93508451432</v>
       </c>
       <c r="F22">
         <v>22438.0775</v>
@@ -2692,82 +2692,82 @@
         <v>55.65</v>
       </c>
       <c r="I22">
-        <v>2.104551083482875</v>
+        <v>2.104551083521073</v>
       </c>
       <c r="J22">
-        <v>889.1816589571536</v>
+        <v>889.181658834219</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>-10.50571180327097</v>
       </c>
       <c r="L22">
-        <v>0.4657804163289256</v>
+        <v>0.465780416261623</v>
       </c>
       <c r="M22">
-        <v>23.14208088163286</v>
+        <v>23.14208094589412</v>
       </c>
       <c r="N22">
-        <v>290.2241486066487</v>
+        <v>290.2241486052517</v>
       </c>
       <c r="O22">
-        <v>128.2230933792889</v>
+        <v>128.2230933844112</v>
       </c>
       <c r="P22">
-        <v>799.1629516567111</v>
+        <v>731.5015645860008</v>
       </c>
       <c r="Q22">
-        <v>98.49769607785856</v>
+        <v>98.49769607896451</v>
       </c>
       <c r="R22">
-        <v>46.97073529241607</v>
+        <v>46.97073530545458</v>
       </c>
       <c r="S22">
         <v>380618</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>-12294.25862836838</v>
       </c>
       <c r="U22">
-        <v>0.05307369111687876</v>
+        <v>0.05307369060756173</v>
       </c>
       <c r="V22">
-        <v>97.77444788545836</v>
+        <v>97.77444788313005</v>
       </c>
       <c r="W22">
-        <v>97.32959275739267</v>
+        <v>97.32959275215399</v>
       </c>
       <c r="X22">
-        <v>12971.56298482596</v>
+        <v>7466.998747814211</v>
       </c>
       <c r="Y22">
-        <v>69.55930769536644</v>
+        <v>69.55930768791586</v>
       </c>
       <c r="Z22">
-        <v>241442.1372616291</v>
+        <v>241442.137250185</v>
       </c>
       <c r="AA22">
-        <v>109</v>
+        <v>561</v>
       </c>
       <c r="AB22">
-        <v>180519.4</v>
+        <v>2233773.6</v>
       </c>
       <c r="AC22">
-        <v>234510.3</v>
+        <v>2719934.4</v>
       </c>
       <c r="AD22">
-        <v>2369</v>
+        <v>23894</v>
       </c>
       <c r="AE22">
-        <v>106.9314891397953</v>
+        <v>5748</v>
       </c>
       <c r="AF22">
-        <v>4208.786580979824</v>
+        <v>1027</v>
       </c>
       <c r="AG22">
-        <v>154202.1</v>
+        <v>18195.1</v>
       </c>
       <c r="AH22">
-        <v>245171.7</v>
+        <v>396549.3</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -2784,94 +2784,94 @@
         <v>50.8</v>
       </c>
       <c r="E23">
-        <v>22253.41071500629</v>
+        <v>22253.41071485728</v>
       </c>
       <c r="F23">
-        <v>24580.05343800411</v>
+        <v>24580.0534378998</v>
       </c>
       <c r="G23">
         <v>0.42</v>
       </c>
       <c r="H23">
-        <v>57.63068627592293</v>
+        <v>57.63068627554458</v>
       </c>
       <c r="I23">
-        <v>1.94709184713065</v>
+        <v>1.947091847172487</v>
       </c>
       <c r="J23">
-        <v>1016.429118003696</v>
+        <v>1016.42911786586</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>-13.10247421701206</v>
       </c>
       <c r="L23">
-        <v>0.3348815548542916</v>
+        <v>0.334881554783351</v>
       </c>
       <c r="M23">
-        <v>36.11644595768303</v>
+        <v>36.11644602939487</v>
       </c>
       <c r="N23">
-        <v>299.4189886476379</v>
+        <v>299.4189886460081</v>
       </c>
       <c r="O23">
-        <v>148.2231733561493</v>
+        <v>148.2231733622029</v>
       </c>
       <c r="P23">
-        <v>691.4544275198452</v>
+        <v>876.3839717713006</v>
       </c>
       <c r="Q23">
-        <v>98.10038699631696</v>
+        <v>98.10038699756842</v>
       </c>
       <c r="R23">
-        <v>54.26171568338759</v>
+        <v>54.26171569852158</v>
       </c>
       <c r="S23">
-        <v>590150.5395536579</v>
+        <v>11950.63984034694</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>-15820.19088429213</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>-0.2157892700342927</v>
       </c>
       <c r="V23">
-        <v>96.98299277760088</v>
+        <v>96.98299277492333</v>
       </c>
       <c r="W23">
-        <v>95.28949708770961</v>
+        <v>95.28949708188884</v>
       </c>
       <c r="X23">
-        <v>10058.65336623096</v>
+        <v>6565.416828680263</v>
       </c>
       <c r="Y23">
-        <v>65.63277747598477</v>
+        <v>65.63277746771928</v>
       </c>
       <c r="Z23">
-        <v>254211.3715238571</v>
+        <v>254211.3715121746</v>
       </c>
       <c r="AA23">
-        <v>116.6590909352526</v>
+        <v>596.068181887269</v>
       </c>
       <c r="AB23">
-        <v>175061.4182252884</v>
+        <v>2468999.479621887</v>
       </c>
       <c r="AC23">
-        <v>267450.9318981171</v>
+        <v>3015037.897819519</v>
       </c>
       <c r="AD23">
-        <v>2773.795454584062</v>
+        <v>25935.72727328539</v>
       </c>
       <c r="AE23">
-        <v>145.7267828285694</v>
+        <v>54722.03976992622</v>
       </c>
       <c r="AF23">
-        <v>5863.131169855595</v>
+        <v>3472.276075631725</v>
       </c>
       <c r="AG23">
-        <v>116062.9568653107</v>
+        <v>22850.34090423584</v>
       </c>
       <c r="AH23">
-        <v>207712.7728099823</v>
+        <v>488097.8772878647</v>
       </c>
     </row>
   </sheetData>
